--- a/cau_hinh.xlsx
+++ b/cau_hinh.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ca915a0223d405de/Desktop/XepLichThi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\XepLichThi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_8C5396BF0176711FC473C4646212E90ADF06C1F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56BD2271-D0AC-4BB6-8502-EA261A863CB2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0491E2B5-08AB-49EB-9D14-F539AE3A8C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="4365" windowWidth="28800" windowHeight="15345" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ThoiGianThi" sheetId="1" r:id="rId1"/>
     <sheet name="HK" sheetId="2" r:id="rId2"/>
     <sheet name="CaThi" sheetId="3" r:id="rId3"/>
     <sheet name="PhongThi" sheetId="4" r:id="rId4"/>
-    <sheet name="QuyTac" sheetId="5" r:id="rId5"/>
-    <sheet name="UuTien" sheetId="6" r:id="rId6"/>
-    <sheet name="UuTienPhase2" sheetId="7" r:id="rId7"/>
+    <sheet name="PhongThiMay" sheetId="8" r:id="rId5"/>
+    <sheet name="QuyTac" sheetId="5" r:id="rId6"/>
+    <sheet name="UuTien" sheetId="6" r:id="rId7"/>
+    <sheet name="UuTienPhase2" sheetId="7" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PhongThi!$A$1:$D$65</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="116">
   <si>
     <t>NgayThi</t>
   </si>
@@ -272,128 +276,128 @@
     <t>D6.510</t>
   </si>
   <si>
-    <t>B1</t>
+    <t>ThamSo</t>
+  </si>
+  <si>
+    <t>GiaTri</t>
+  </si>
+  <si>
+    <t>SoNgayToiDaCho1Mon</t>
+  </si>
+  <si>
+    <t>KhongThiLienKe</t>
+  </si>
+  <si>
+    <t>SoCaMoiNgay</t>
+  </si>
+  <si>
+    <t>TieuChi</t>
+  </si>
+  <si>
+    <t>HeSo</t>
+  </si>
+  <si>
+    <t>CHUNG</t>
+  </si>
+  <si>
+    <t>RIENG</t>
+  </si>
+  <si>
+    <t>CTDT_Khoa</t>
+  </si>
+  <si>
+    <t>SoNgayThi</t>
+  </si>
+  <si>
+    <t>GhiChu</t>
+  </si>
+  <si>
+    <t>Ví dụ Test</t>
+  </si>
+  <si>
+    <t>Test môn riêng</t>
+  </si>
+  <si>
+    <t>CNTT-K25</t>
+  </si>
+  <si>
+    <t>HTTTQL-K25</t>
+  </si>
+  <si>
+    <t>KDQT-K25</t>
+  </si>
+  <si>
+    <t>KTDN-K25</t>
+  </si>
+  <si>
+    <t>KTDT-K25</t>
+  </si>
+  <si>
+    <t>LKT-K25</t>
+  </si>
+  <si>
+    <t>NNA-K25</t>
+  </si>
+  <si>
+    <t>QTKD-K25</t>
+  </si>
+  <si>
+    <t>NH-K25</t>
+  </si>
+  <si>
+    <t>TC-K25</t>
+  </si>
+  <si>
+    <t>CNTC-K25</t>
+  </si>
+  <si>
+    <t>KTDT-K9</t>
+  </si>
+  <si>
+    <t>NH-K9</t>
+  </si>
+  <si>
+    <t>QTKD-K9</t>
+  </si>
+  <si>
+    <t>TC-K9</t>
+  </si>
+  <si>
+    <t>KDQT-K9</t>
   </si>
   <si>
     <t>T203</t>
   </si>
   <si>
+    <t>T303</t>
+  </si>
+  <si>
+    <t>T304</t>
+  </si>
+  <si>
+    <t>T403</t>
+  </si>
+  <si>
+    <t>T404</t>
+  </si>
+  <si>
+    <t>T503</t>
+  </si>
+  <si>
+    <t>T405</t>
+  </si>
+  <si>
+    <t>MaHP</t>
+  </si>
+  <si>
     <t>PM</t>
-  </si>
-  <si>
-    <t>T303</t>
-  </si>
-  <si>
-    <t>T304</t>
-  </si>
-  <si>
-    <t>T403</t>
-  </si>
-  <si>
-    <t>T404</t>
-  </si>
-  <si>
-    <t>T503</t>
-  </si>
-  <si>
-    <t>T504</t>
-  </si>
-  <si>
-    <t>ThamSo</t>
-  </si>
-  <si>
-    <t>GiaTri</t>
-  </si>
-  <si>
-    <t>SoNgayToiDaCho1Mon</t>
-  </si>
-  <si>
-    <t>KhongThiLienKe</t>
-  </si>
-  <si>
-    <t>SoCaMoiNgay</t>
-  </si>
-  <si>
-    <t>TieuChi</t>
-  </si>
-  <si>
-    <t>HeSo</t>
-  </si>
-  <si>
-    <t>CHUNG</t>
-  </si>
-  <si>
-    <t>RIENG</t>
-  </si>
-  <si>
-    <t>CTDT_Khoa</t>
-  </si>
-  <si>
-    <t>SoNgayThi</t>
-  </si>
-  <si>
-    <t>GhiChu</t>
-  </si>
-  <si>
-    <t>Ví dụ Test</t>
-  </si>
-  <si>
-    <t>Test môn riêng</t>
-  </si>
-  <si>
-    <t>CNTT-K25</t>
-  </si>
-  <si>
-    <t>HTTTQL-K25</t>
-  </si>
-  <si>
-    <t>KDQT-K25</t>
-  </si>
-  <si>
-    <t>KTDN-K25</t>
-  </si>
-  <si>
-    <t>KTDT-K25</t>
-  </si>
-  <si>
-    <t>LKT-K25</t>
-  </si>
-  <si>
-    <t>NNA-K25</t>
-  </si>
-  <si>
-    <t>QTKD-K25</t>
-  </si>
-  <si>
-    <t>NH-K25</t>
-  </si>
-  <si>
-    <t>TC-K25</t>
-  </si>
-  <si>
-    <t>CNTC-K25</t>
-  </si>
-  <si>
-    <t>KTDT-K9</t>
-  </si>
-  <si>
-    <t>NH-K9</t>
-  </si>
-  <si>
-    <t>QTKD-K9</t>
-  </si>
-  <si>
-    <t>TC-K9</t>
-  </si>
-  <si>
-    <t>KDQT-K9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="13"/>
       <color theme="1"/>
@@ -432,7 +436,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -485,12 +489,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="61"/>
+      </left>
+      <right style="thin">
+        <color indexed="61"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -504,6 +519,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -840,18 +861,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -859,218 +880,226 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
+        <v>45997</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
         <v>45999</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <f t="shared" ref="A3:A25" si="0">A2+1</f>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A26" si="0">A3+1</f>
         <v>46000</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>46001</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>46002</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>46003</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>46004</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>46005</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>46006</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>46007</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>46008</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>46009</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>46010</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>46011</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>46012</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>46013</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>46014</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>46015</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>46016</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>46017</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>46018</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>46019</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>46020</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>46021</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>46022</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>1</v>
       </c>
     </row>
@@ -1087,9 +1116,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1097,7 +1126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>2025</v>
       </c>
@@ -1118,29 +1147,29 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1154,13 +1183,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -1174,7 +1203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1188,7 +1217,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1202,7 +1231,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1216,7 +1245,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1230,7 +1259,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1244,7 +1273,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1258,7 +1287,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1272,7 +1301,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1286,7 +1315,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1300,7 +1329,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1314,7 +1343,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1328,7 +1357,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1342,7 +1371,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1356,7 +1385,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1370,7 +1399,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1384,7 +1413,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1398,7 +1427,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1412,7 +1441,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1426,7 +1455,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1440,7 +1469,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1454,7 +1483,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -1468,7 +1497,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
@@ -1482,7 +1511,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -1496,7 +1525,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
@@ -1510,7 +1539,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
         <v>35</v>
       </c>
@@ -1524,7 +1553,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
@@ -1538,7 +1567,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
@@ -1552,7 +1581,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
@@ -1566,7 +1595,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
@@ -1580,7 +1609,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
@@ -1594,7 +1623,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
         <v>35</v>
       </c>
@@ -1608,7 +1637,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
@@ -1622,7 +1651,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
@@ -1636,7 +1665,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -1650,7 +1679,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -1664,7 +1693,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -1678,7 +1707,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
         <v>35</v>
       </c>
@@ -1692,7 +1721,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
         <v>35</v>
       </c>
@@ -1706,7 +1735,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
         <v>35</v>
       </c>
@@ -1720,7 +1749,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
         <v>35</v>
       </c>
@@ -1734,7 +1763,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
         <v>35</v>
       </c>
@@ -1748,7 +1777,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
         <v>35</v>
       </c>
@@ -1762,7 +1791,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
         <v>35</v>
       </c>
@@ -1776,7 +1805,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
         <v>35</v>
       </c>
@@ -1790,7 +1819,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
         <v>35</v>
       </c>
@@ -1804,7 +1833,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
         <v>35</v>
       </c>
@@ -1818,7 +1847,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
         <v>35</v>
       </c>
@@ -1832,7 +1861,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
         <v>35</v>
       </c>
@@ -1846,7 +1875,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
         <v>35</v>
       </c>
@@ -1860,7 +1889,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
         <v>35</v>
       </c>
@@ -1874,7 +1903,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
         <v>35</v>
       </c>
@@ -1888,7 +1917,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
         <v>35</v>
       </c>
@@ -1902,7 +1931,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
         <v>35</v>
       </c>
@@ -1916,7 +1945,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
         <v>35</v>
       </c>
@@ -1930,7 +1959,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
         <v>35</v>
       </c>
@@ -1944,7 +1973,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
         <v>35</v>
       </c>
@@ -1958,7 +1987,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
         <v>35</v>
       </c>
@@ -1972,7 +2001,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
         <v>35</v>
       </c>
@@ -1986,7 +2015,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
         <v>35</v>
       </c>
@@ -2000,7 +2029,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
         <v>35</v>
       </c>
@@ -2014,7 +2043,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
         <v>35</v>
       </c>
@@ -2028,7 +2057,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
         <v>35</v>
       </c>
@@ -2042,7 +2071,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
         <v>35</v>
       </c>
@@ -2056,7 +2085,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
         <v>35</v>
       </c>
@@ -2070,102 +2099,158 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D66" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D67" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D68" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D69" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D70" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D71" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D72" s="3">
-        <v>100</v>
+    <row r="66" spans="1:4">
+      <c r="B66" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="B67" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="B68" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D68" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="B69" t="s">
+        <v>110</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D69" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="B70" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D70" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="B71" t="s">
+        <v>112</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D71" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="B72" t="s">
+        <v>113</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D72" s="7">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D65" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B4E87E-AD28-43BF-B41A-613BD1E76198}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>45997</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>46004</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>46011</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>46018</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2173,7 +2258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -2181,38 +2266,38 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -2223,7 +2308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -2231,27 +2316,27 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2262,160 +2347,160 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B2">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B3">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B4">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B5">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B6">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B7">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B8">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B9">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B10">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B11">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B12">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B13">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B14">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B15">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B17">
         <v>15</v>
